--- a/tasks/task_table_great_stat_high.xlsx
+++ b/tasks/task_table_great_stat_high.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="0" windowWidth="18216" windowHeight="7788"/>
+    <workbookView xWindow="5904" yWindow="0" windowWidth="18216" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -638,8 +638,8 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H25" sqref="H25:H27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
